--- a/exit_log.xlsx
+++ b/exit_log.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
@@ -491,6 +491,74 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Sakthivel</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-01-29</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-01-29 04:36:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Vasanth Kumar</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-01-29</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-01-29 04:36:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Siddharth</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-01-29</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-01-29 12:05:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Vasanth Kumar</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-01-30</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-01-30 07:59:46</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
